--- a/PCB/Project Outputs for Twintig-Tap-Pads/BOM/Bill of Materials-Twintig-Tap-Pads.xlsx
+++ b/PCB/Project Outputs for Twintig-Tap-Pads/BOM/Bill of Materials-Twintig-Tap-Pads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-Tap-Pads\PCB\Project Outputs for Twintig-Tap-Pads\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D49499C-BEEE-4B7E-AFC1-CBBA967FFA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16413A64-80B2-4E85-BC7A-6DFEC43C2594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="24686" windowHeight="14597" xr2:uid="{40BF0153-62FB-40CC-8091-8BD6BC90C2A7}"/>
+    <workbookView xWindow="2620" yWindow="730" windowWidth="24900" windowHeight="19270" xr2:uid="{EB9038B6-19F4-4B86-B7A6-17C6E932A3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-Tap-P" sheetId="1" r:id="rId1"/>
@@ -574,20 +574,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1152E5-65C6-4AE6-9E07-A40C681C7108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B32AD52-FF9C-4DA8-BA7D-2B5858874B4A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="86.61328125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="25.07421875" customWidth="1"/>
-    <col min="4" max="4" width="24.765625" customWidth="1"/>
+    <col min="1" max="1" width="87.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -601,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -615,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -657,7 +657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -713,7 +713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -727,7 +727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -741,7 +741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -755,7 +755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -769,7 +769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -783,7 +783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -797,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -811,7 +811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -825,7 +825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -839,7 +839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -853,7 +853,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -867,7 +867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
